--- a/Tips/categoryProduct.xlsx
+++ b/Tips/categoryProduct.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,9 +15,149 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Apps &amp; Games</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Car &amp; Motorbike</t>
+  </si>
+  <si>
+    <t>Clothing &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Collectibles</t>
+  </si>
+  <si>
+    <t>Computers &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Garden &amp; Outdoors</t>
+  </si>
+  <si>
+    <t>Gift Cards</t>
+  </si>
+  <si>
+    <t>Grocery &amp; Gourmet Foods</t>
+  </si>
+  <si>
+    <t>Health &amp; Personal Care</t>
+  </si>
+  <si>
+    <t>Home &amp; Kitchen</t>
+  </si>
+  <si>
+    <t>Industrial &amp; Scientific</t>
+  </si>
+  <si>
+    <t>Jewellery</t>
+  </si>
+  <si>
+    <t>Luggage &amp; Bags</t>
+  </si>
+  <si>
+    <t>Luxury Beauty</t>
+  </si>
+  <si>
+    <t>Movies &amp; TV Shows</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Musical Instruments</t>
+  </si>
+  <si>
+    <t>Office Products</t>
+  </si>
+  <si>
+    <t>Pet Supplies</t>
+  </si>
+  <si>
+    <t>Shoes &amp; Handbags</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Sports, Fitness &amp; Outdoors</t>
+  </si>
+  <si>
+    <t>Tools &amp; Home Improvement</t>
+  </si>
+  <si>
+    <t>Toys &amp; Games</t>
+  </si>
+  <si>
+    <t>Video Games</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Electronic Accessories &amp; Gadgets</t>
+  </si>
+  <si>
+    <t>Camera &amp; Photo Accessories</t>
+  </si>
+  <si>
+    <t>Clothes, Shoes, and Jewelry</t>
+  </si>
+  <si>
+    <t>Beauty And Personal Care</t>
+  </si>
+  <si>
+    <t>Dolls &amp; Bears</t>
+  </si>
+  <si>
+    <t>Home &amp; Garden</t>
+  </si>
+  <si>
+    <t>Motors</t>
+  </si>
+  <si>
+    <t>Sporting Goods</t>
+  </si>
+  <si>
+    <t>Antiques</t>
+  </si>
+  <si>
+    <t>Parts &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Car &amp; Truck Parts</t>
+  </si>
+  <si>
+    <t>Motorcycle Parts</t>
+  </si>
+  <si>
+    <t>Books, Movies &amp; Music</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +194,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +488,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="53.25" customWidth="1"/>
+    <col min="3" max="3" width="49.25" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tips/categoryProduct.xlsx
+++ b/Tips/categoryProduct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Appliances</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Books, Movies &amp; Music</t>
+  </si>
+  <si>
+    <t>Properties(house,flat,office,plot,…)</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,15 +506,18 @@
     <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -519,12 +525,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -535,7 +541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -546,12 +552,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -559,12 +565,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -572,7 +578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -580,7 +586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -588,7 +594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -596,7 +602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -604,7 +610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -612,12 +618,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/Tips/categoryProduct.xlsx
+++ b/Tips/categoryProduct.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
